--- a/2016년 수강료 8월/중국어 수강료.xlsx
+++ b/2016년 수강료 8월/중국어 수강료.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="555" windowWidth="19440" windowHeight="13500"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
   <si>
     <t>*주야</t>
   </si>
@@ -132,31 +132,48 @@
     <t>이연우</t>
   </si>
   <si>
+    <t>시수</t>
+  </si>
+  <si>
+    <t>수강료</t>
+  </si>
+  <si>
+    <t>수용비</t>
+  </si>
+  <si>
+    <t>계</t>
+  </si>
+  <si>
     <t>박나경</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>박건석</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>박민성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*수강료</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>*수용비</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="General&quot;학년&quot;"/>
     <numFmt numFmtId="177" formatCode="General&quot;반&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +195,14 @@
       <name val="굴림체"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -232,9 +257,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -253,20 +278,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -567,20 +607,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
-    <col min="5" max="5" width="11.625" style="6" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="9" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,13 +637,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -619,12 +662,17 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="12">
-        <v>990</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="17">
+        <f>F$40</f>
+        <v>12360</v>
+      </c>
+      <c r="G2" s="17">
+        <f>F$41</f>
+        <v>990</v>
+      </c>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -640,12 +688,17 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="12">
-        <v>990</v>
-      </c>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="17">
+        <f t="shared" ref="F3:F35" si="0">F$40</f>
+        <v>12360</v>
+      </c>
+      <c r="G3" s="17">
+        <f t="shared" ref="G3:G35" si="1">F$41</f>
+        <v>990</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -661,12 +714,17 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="12">
-        <v>990</v>
-      </c>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -682,12 +740,17 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="12">
-        <v>990</v>
-      </c>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -703,12 +766,17 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12">
-        <v>990</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -724,12 +792,17 @@
       <c r="E7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="12">
-        <v>990</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -745,12 +818,17 @@
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="12">
-        <v>990</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
@@ -766,12 +844,17 @@
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="12">
-        <v>990</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
@@ -787,12 +870,17 @@
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="12">
-        <v>990</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
@@ -808,12 +896,17 @@
       <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="12">
-        <v>990</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="5" t="s">
         <v>6</v>
       </c>
@@ -829,12 +922,17 @@
       <c r="E12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="12">
-        <v>990</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="5" t="s">
         <v>6</v>
       </c>
@@ -850,12 +948,17 @@
       <c r="E13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="12">
-        <v>990</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="5" t="s">
         <v>6</v>
       </c>
@@ -871,12 +974,17 @@
       <c r="E14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="12">
-        <v>990</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
@@ -892,12 +1000,17 @@
       <c r="E15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="12">
-        <v>990</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="5" t="s">
         <v>6</v>
       </c>
@@ -913,12 +1026,17 @@
       <c r="E16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F16" s="12">
-        <v>990</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="5" t="s">
         <v>6</v>
       </c>
@@ -934,12 +1052,17 @@
       <c r="E17" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="12">
-        <v>990</v>
-      </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -955,12 +1078,17 @@
       <c r="E18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="12">
-        <v>990</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -976,12 +1104,17 @@
       <c r="E19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="12">
-        <v>990</v>
-      </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -997,12 +1130,17 @@
       <c r="E20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="12">
-        <v>990</v>
-      </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1018,12 +1156,17 @@
       <c r="E21" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="12">
-        <v>990</v>
-      </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -1039,12 +1182,17 @@
       <c r="E22" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F22" s="12">
-        <v>990</v>
-      </c>
-      <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1060,12 +1208,17 @@
       <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="12">
-        <v>990</v>
-      </c>
-      <c r="G23" s="5"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -1081,12 +1234,17 @@
       <c r="E24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="12">
-        <v>990</v>
-      </c>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1102,12 +1260,17 @@
       <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="12">
-        <v>990</v>
-      </c>
-      <c r="G25" s="5"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1123,12 +1286,17 @@
       <c r="E26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="12">
-        <v>990</v>
-      </c>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -1144,12 +1312,17 @@
       <c r="E27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="12">
-        <v>990</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="F27" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G27" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="5" t="s">
         <v>6</v>
       </c>
@@ -1165,12 +1338,17 @@
       <c r="E28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="12">
-        <v>990</v>
-      </c>
-      <c r="G28" s="5"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="F28" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G28" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
@@ -1186,12 +1364,17 @@
       <c r="E29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="12">
-        <v>990</v>
-      </c>
-      <c r="G29" s="5"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="F29" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="5" t="s">
         <v>6</v>
       </c>
@@ -1207,12 +1390,17 @@
       <c r="E30" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="12">
-        <v>990</v>
-      </c>
-      <c r="G30" s="5"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="F30" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="5" t="s">
         <v>6</v>
       </c>
@@ -1228,12 +1416,17 @@
       <c r="E31" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="12">
-        <v>990</v>
-      </c>
-      <c r="G31" s="5"/>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="F31" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G31" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="5" t="s">
         <v>6</v>
       </c>
@@ -1249,73 +1442,182 @@
       <c r="E32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="12">
-        <v>990</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="10">
+      <c r="F32" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G32" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="16">
         <v>2</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="14">
         <v>8</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G33" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H33" s="12"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="15">
+        <v>3</v>
+      </c>
+      <c r="C34" s="16">
+        <v>6</v>
+      </c>
+      <c r="D34" s="14">
+        <v>12</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G34" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H34" s="12"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="15">
+        <v>6</v>
+      </c>
+      <c r="C35" s="16">
+        <v>3</v>
+      </c>
+      <c r="D35" s="14">
+        <v>11</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" s="17">
+        <f t="shared" si="0"/>
+        <v>12360</v>
+      </c>
+      <c r="G35" s="17">
+        <f t="shared" si="1"/>
+        <v>990</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="5"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="5"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="5"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="C39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7">
+        <v>35000</v>
+      </c>
+      <c r="C40" s="6">
+        <v>12</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="8">
+        <f>B40*C40</f>
+        <v>420000</v>
+      </c>
+      <c r="F40" s="8">
+        <f>ROUNDUP(E40/34,-1)</f>
+        <v>12360</v>
+      </c>
+      <c r="G40" s="8"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="12">
-        <v>990</v>
-      </c>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="10">
-        <v>3</v>
-      </c>
-      <c r="C34" s="11">
-        <v>6</v>
-      </c>
-      <c r="D34" s="9">
-        <v>12</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="12">
-        <v>990</v>
-      </c>
-      <c r="G34" s="7"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="10">
-        <v>6</v>
-      </c>
-      <c r="C35" s="11">
-        <v>3</v>
-      </c>
-      <c r="D35" s="9">
-        <v>11</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="12">
-        <v>990</v>
-      </c>
-      <c r="G35" s="7"/>
+      <c r="B41" s="8">
+        <f>E40</f>
+        <v>420000</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="E41" s="8">
+        <f>B41*C41</f>
+        <v>33600</v>
+      </c>
+      <c r="F41" s="8">
+        <f>ROUNDUP(E41/34,-1)</f>
+        <v>990</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F42" s="8">
+        <f>SUM(F40:F41)</f>
+        <v>13350</v>
+      </c>
+      <c r="G42" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A2:G36">
@@ -1323,7 +1625,7 @@
     <sortCondition ref="C2:C36"/>
     <sortCondition ref="D2:D36"/>
   </sortState>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1337,7 +1639,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1350,7 +1652,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
